--- a/input-files/inputs.xlsx
+++ b/input-files/inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="24280" windowHeight="17560" tabRatio="802"/>
+    <workbookView xWindow="2840" yWindow="0" windowWidth="24280" windowHeight="17560" tabRatio="802" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="2" r:id="rId1"/>
@@ -255,8 +255,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,7 +396,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -449,6 +457,10 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -509,6 +521,10 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -841,8 +857,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C57"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E57" sqref="B1:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1863,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2910,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L423"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -2996,7 +3012,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3008,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3092,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -3104,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3508,7 +3524,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>17</v>
@@ -3520,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3604,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>20</v>
@@ -3616,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3668,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>22</v>
@@ -3680,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3828,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <v>27</v>
@@ -3840,7 +3856,7 @@
         <v>6</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3956,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>31</v>
@@ -3968,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4052,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
         <v>34</v>
@@ -4064,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4212,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
         <v>39</v>
@@ -4224,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4276,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
         <v>41</v>
@@ -4288,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="L43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4372,7 +4388,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <v>44</v>
@@ -4384,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4404,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1">
         <v>45</v>
@@ -4416,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4532,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
         <v>49</v>
@@ -4544,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="L51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4564,7 +4580,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="1">
         <v>50</v>
@@ -4576,7 +4592,7 @@
         <v>8</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4692,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <v>54</v>
@@ -4704,7 +4720,7 @@
         <v>7</v>
       </c>
       <c r="L56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4820,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1">
         <v>58</v>
@@ -4832,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4852,7 +4868,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
         <v>59</v>
@@ -4864,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="L61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4948,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="1">
         <v>62</v>
@@ -4960,7 +4976,7 @@
         <v>10</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5044,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
         <v>65</v>
@@ -5056,7 +5072,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -5140,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="1">
         <v>68</v>
@@ -5152,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -5364,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
         <v>75</v>
@@ -5376,7 +5392,7 @@
         <v>13</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5428,7 +5444,7 @@
         <v>21</v>
       </c>
       <c r="F79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1">
         <v>77</v>
@@ -5440,7 +5456,7 @@
         <v>15</v>
       </c>
       <c r="L79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -6068,7 +6084,7 @@
         <v>22</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="1">
         <v>97</v>
@@ -6080,7 +6096,7 @@
         <v>17</v>
       </c>
       <c r="L99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -6164,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="1">
         <v>100</v>
@@ -6176,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="L102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -6420,7 +6436,7 @@
         <v>25</v>
       </c>
       <c r="F110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="1">
         <v>108</v>
@@ -6432,7 +6448,7 @@
         <v>19</v>
       </c>
       <c r="L110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6452,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="1">
         <v>109</v>
@@ -6464,7 +6480,7 @@
         <v>20</v>
       </c>
       <c r="L111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6548,7 +6564,7 @@
         <v>20</v>
       </c>
       <c r="F114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="1">
         <v>112</v>
@@ -6560,7 +6576,7 @@
         <v>14</v>
       </c>
       <c r="L114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6580,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="1">
         <v>113</v>
@@ -6592,7 +6608,7 @@
         <v>15</v>
       </c>
       <c r="L115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6932,7 +6948,7 @@
         <v>22</v>
       </c>
       <c r="F126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1">
         <v>124</v>
@@ -6944,7 +6960,7 @@
         <v>17</v>
       </c>
       <c r="L126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6964,7 +6980,7 @@
         <v>24</v>
       </c>
       <c r="F127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" s="1">
         <v>125</v>
@@ -6976,7 +6992,7 @@
         <v>18</v>
       </c>
       <c r="L127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -7124,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="F132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="1">
         <v>130</v>
@@ -7136,7 +7152,7 @@
         <v>14</v>
       </c>
       <c r="L132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7284,7 +7300,7 @@
         <v>25</v>
       </c>
       <c r="F137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="1">
         <v>135</v>
@@ -7296,7 +7312,7 @@
         <v>19</v>
       </c>
       <c r="L137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -8052,7 +8068,7 @@
         <v>28</v>
       </c>
       <c r="F161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" s="1">
         <v>159</v>
@@ -8064,7 +8080,7 @@
         <v>25</v>
       </c>
       <c r="L161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8084,7 +8100,7 @@
         <v>29</v>
       </c>
       <c r="F162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" s="1">
         <v>160</v>
@@ -8096,7 +8112,7 @@
         <v>26</v>
       </c>
       <c r="L162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8372,7 +8388,7 @@
         <v>29</v>
       </c>
       <c r="F171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" s="1">
         <v>169</v>
@@ -8384,7 +8400,7 @@
         <v>26</v>
       </c>
       <c r="L171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8404,7 +8420,7 @@
         <v>30</v>
       </c>
       <c r="F172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" s="1">
         <v>170</v>
@@ -8416,7 +8432,7 @@
         <v>27</v>
       </c>
       <c r="L172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8564,7 +8580,7 @@
         <v>26</v>
       </c>
       <c r="F177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" s="1">
         <v>175</v>
@@ -8576,7 +8592,7 @@
         <v>23</v>
       </c>
       <c r="L177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8628,7 +8644,7 @@
         <v>28</v>
       </c>
       <c r="F179" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" s="1">
         <v>177</v>
@@ -8640,7 +8656,7 @@
         <v>25</v>
       </c>
       <c r="L179" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8820,7 +8836,7 @@
         <v>19</v>
       </c>
       <c r="F185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" s="1">
         <v>183</v>
@@ -8832,7 +8848,7 @@
         <v>22</v>
       </c>
       <c r="L185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9044,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" s="1">
         <v>190</v>
@@ -9056,7 +9072,7 @@
         <v>29</v>
       </c>
       <c r="L192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9140,7 +9156,7 @@
         <v>26</v>
       </c>
       <c r="F195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" s="1">
         <v>193</v>
@@ -9152,7 +9168,7 @@
         <v>23</v>
       </c>
       <c r="L195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9236,7 +9252,7 @@
         <v>29</v>
       </c>
       <c r="F198" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" s="1">
         <v>196</v>
@@ -9248,7 +9264,7 @@
         <v>26</v>
       </c>
       <c r="L198" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9364,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" s="1">
         <v>200</v>
@@ -9376,7 +9392,7 @@
         <v>21</v>
       </c>
       <c r="L202" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9620,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="F210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" s="1">
         <v>208</v>
@@ -9632,7 +9648,7 @@
         <v>29</v>
       </c>
       <c r="L210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9684,7 +9700,7 @@
         <v>19</v>
       </c>
       <c r="F212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" s="1">
         <v>210</v>
@@ -9696,7 +9712,7 @@
         <v>22</v>
       </c>
       <c r="L212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9780,7 +9796,7 @@
         <v>28</v>
       </c>
       <c r="F215" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" s="1">
         <v>213</v>
@@ -9792,7 +9808,7 @@
         <v>25</v>
       </c>
       <c r="L215" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9972,7 +9988,7 @@
         <v>19</v>
       </c>
       <c r="F221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" s="1">
         <v>219</v>
@@ -9984,7 +10000,7 @@
         <v>22</v>
       </c>
       <c r="L221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10100,7 +10116,7 @@
         <v>29</v>
       </c>
       <c r="F225" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" s="1">
         <v>223</v>
@@ -10112,7 +10128,7 @@
         <v>26</v>
       </c>
       <c r="L225" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10292,7 +10308,7 @@
         <v>26</v>
       </c>
       <c r="F231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" s="1">
         <v>229</v>
@@ -10304,7 +10320,7 @@
         <v>23</v>
       </c>
       <c r="L231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10420,7 +10436,7 @@
         <v>30</v>
       </c>
       <c r="F235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" s="1">
         <v>233</v>
@@ -10432,7 +10448,7 @@
         <v>27</v>
       </c>
       <c r="L235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10516,7 +10532,7 @@
         <v>3</v>
       </c>
       <c r="F238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" s="1">
         <v>236</v>
@@ -10528,7 +10544,7 @@
         <v>30</v>
       </c>
       <c r="L238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10580,7 +10596,7 @@
         <v>17</v>
       </c>
       <c r="F240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" s="1">
         <v>238</v>
@@ -10592,7 +10608,7 @@
         <v>32</v>
       </c>
       <c r="L240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10708,7 +10724,7 @@
         <v>19</v>
       </c>
       <c r="F244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" s="1">
         <v>242</v>
@@ -10720,7 +10736,7 @@
         <v>31</v>
       </c>
       <c r="L244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10740,7 +10756,7 @@
         <v>17</v>
       </c>
       <c r="F245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" s="1">
         <v>243</v>
@@ -10752,7 +10768,7 @@
         <v>32</v>
       </c>
       <c r="L245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -10932,7 +10948,7 @@
         <v>18</v>
       </c>
       <c r="F251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" s="1">
         <v>249</v>
@@ -10944,7 +10960,7 @@
         <v>33</v>
       </c>
       <c r="L251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -10964,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="F252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" s="1">
         <v>250</v>
@@ -10976,7 +10992,7 @@
         <v>34</v>
       </c>
       <c r="L252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -10996,7 +11012,7 @@
         <v>3</v>
       </c>
       <c r="F253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" s="1">
         <v>251</v>
@@ -11008,7 +11024,7 @@
         <v>30</v>
       </c>
       <c r="L253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11028,7 +11044,7 @@
         <v>19</v>
       </c>
       <c r="F254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" s="1">
         <v>252</v>
@@ -11040,7 +11056,7 @@
         <v>31</v>
       </c>
       <c r="L254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11156,7 +11172,7 @@
         <v>3</v>
       </c>
       <c r="F258" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" s="1">
         <v>256</v>
@@ -11168,7 +11184,7 @@
         <v>30</v>
       </c>
       <c r="L258" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11220,7 +11236,7 @@
         <v>17</v>
       </c>
       <c r="F260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" s="1">
         <v>258</v>
@@ -11232,7 +11248,7 @@
         <v>32</v>
       </c>
       <c r="L260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11476,7 +11492,7 @@
         <v>36</v>
       </c>
       <c r="F268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="1">
         <v>266</v>
@@ -11488,7 +11504,7 @@
         <v>40</v>
       </c>
       <c r="L268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11508,7 +11524,7 @@
         <v>37</v>
       </c>
       <c r="F269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" s="1">
         <v>267</v>
@@ -11520,7 +11536,7 @@
         <v>41</v>
       </c>
       <c r="L269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11636,7 +11652,7 @@
         <v>33</v>
       </c>
       <c r="F273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" s="1">
         <v>271</v>
@@ -11648,7 +11664,7 @@
         <v>37</v>
       </c>
       <c r="L273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -11700,7 +11716,7 @@
         <v>35</v>
       </c>
       <c r="F275" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="1">
         <v>273</v>
@@ -11712,7 +11728,7 @@
         <v>39</v>
       </c>
       <c r="L275" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -11860,7 +11876,7 @@
         <v>32</v>
       </c>
       <c r="F280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" s="1">
         <v>278</v>
@@ -11872,7 +11888,7 @@
         <v>36</v>
       </c>
       <c r="L280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -11924,7 +11940,7 @@
         <v>34</v>
       </c>
       <c r="F282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" s="1">
         <v>280</v>
@@ -11936,7 +11952,7 @@
         <v>38</v>
       </c>
       <c r="L282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12212,7 +12228,7 @@
         <v>35</v>
       </c>
       <c r="F291" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" s="1">
         <v>289</v>
@@ -12224,7 +12240,7 @@
         <v>39</v>
       </c>
       <c r="L291" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12244,7 +12260,7 @@
         <v>36</v>
       </c>
       <c r="F292" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" s="1">
         <v>290</v>
@@ -12256,7 +12272,7 @@
         <v>40</v>
       </c>
       <c r="L292" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12916,7 +12932,7 @@
         <v>33</v>
       </c>
       <c r="F313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" s="1">
         <v>311</v>
@@ -12928,7 +12944,7 @@
         <v>37</v>
       </c>
       <c r="L313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13076,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="F318" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="1">
         <v>316</v>
@@ -13088,7 +13104,7 @@
         <v>42</v>
       </c>
       <c r="L318" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13236,7 +13252,7 @@
         <v>35</v>
       </c>
       <c r="F323" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" s="1">
         <v>321</v>
@@ -13248,7 +13264,7 @@
         <v>39</v>
       </c>
       <c r="L323" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -13300,7 +13316,7 @@
         <v>37</v>
       </c>
       <c r="F325" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" s="1">
         <v>323</v>
@@ -13312,7 +13328,7 @@
         <v>41</v>
       </c>
       <c r="L325" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -13454,7 +13470,7 @@
         <v>3</v>
       </c>
       <c r="D330" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>0</v>
@@ -13469,7 +13485,7 @@
         <v>43</v>
       </c>
       <c r="K330" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L330" s="1">
         <v>0</v>
@@ -13582,7 +13598,7 @@
         <v>38</v>
       </c>
       <c r="D334" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>0</v>
@@ -13597,7 +13613,7 @@
         <v>44</v>
       </c>
       <c r="K334" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L334" s="1">
         <v>1</v>
@@ -13652,7 +13668,7 @@
         <v>38</v>
       </c>
       <c r="F336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" s="1">
         <v>334</v>
@@ -13664,7 +13680,7 @@
         <v>44</v>
       </c>
       <c r="L336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -13684,7 +13700,7 @@
         <v>39</v>
       </c>
       <c r="F337" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337" s="1">
         <v>335</v>
@@ -13696,7 +13712,7 @@
         <v>45</v>
       </c>
       <c r="L337" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -13710,7 +13726,7 @@
         <v>39</v>
       </c>
       <c r="D338" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>0</v>
@@ -13725,7 +13741,7 @@
         <v>45</v>
       </c>
       <c r="K338" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L338" s="1">
         <v>0</v>
@@ -13736,7 +13752,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>0</v>
@@ -13754,7 +13770,7 @@
         <v>337</v>
       </c>
       <c r="J339" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K339" s="1">
         <v>43</v>
@@ -13768,7 +13784,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>0</v>
@@ -13786,7 +13802,7 @@
         <v>338</v>
       </c>
       <c r="J340" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K340" s="1">
         <v>44</v>
@@ -13800,7 +13816,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>0</v>
@@ -13812,19 +13828,19 @@
         <v>39</v>
       </c>
       <c r="F341" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341" s="1">
         <v>339</v>
       </c>
       <c r="J341" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K341" s="1">
         <v>45</v>
       </c>
       <c r="L341" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -13832,31 +13848,31 @@
         <v>340</v>
       </c>
       <c r="B342" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D342" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F342" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" s="1">
         <v>340</v>
       </c>
       <c r="J342" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K342" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L342" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -13864,13 +13880,13 @@
         <v>341</v>
       </c>
       <c r="B343" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D343" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>3</v>
@@ -13882,10 +13898,10 @@
         <v>341</v>
       </c>
       <c r="J343" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K343" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L343" s="1">
         <v>0</v>
@@ -13896,13 +13912,13 @@
         <v>342</v>
       </c>
       <c r="B344" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D344" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>40</v>
@@ -13914,10 +13930,10 @@
         <v>342</v>
       </c>
       <c r="J344" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K344" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L344" s="1">
         <v>0</v>
@@ -13928,13 +13944,13 @@
         <v>343</v>
       </c>
       <c r="B345" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D345" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>41</v>
@@ -13946,10 +13962,10 @@
         <v>343</v>
       </c>
       <c r="J345" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K345" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L345" s="1">
         <v>0</v>
@@ -13960,13 +13976,13 @@
         <v>344</v>
       </c>
       <c r="B346" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D346" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>42</v>
@@ -13978,10 +13994,10 @@
         <v>344</v>
       </c>
       <c r="J346" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K346" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L346" s="1">
         <v>0</v>
@@ -13992,31 +14008,31 @@
         <v>345</v>
       </c>
       <c r="B347" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D347" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F347" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" s="1">
         <v>345</v>
       </c>
       <c r="J347" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K347" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L347" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14024,13 +14040,13 @@
         <v>346</v>
       </c>
       <c r="B348" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D348" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>44</v>
@@ -14042,10 +14058,10 @@
         <v>346</v>
       </c>
       <c r="J348" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K348" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L348" s="1">
         <v>0</v>
@@ -14056,13 +14072,13 @@
         <v>347</v>
       </c>
       <c r="B349" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D349" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>45</v>
@@ -14074,10 +14090,10 @@
         <v>347</v>
       </c>
       <c r="J349" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K349" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L349" s="1">
         <v>0</v>
@@ -14088,13 +14104,13 @@
         <v>348</v>
       </c>
       <c r="B350" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D350" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>46</v>
@@ -14106,10 +14122,10 @@
         <v>348</v>
       </c>
       <c r="J350" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K350" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L350" s="1">
         <v>0</v>
@@ -14120,31 +14136,31 @@
         <v>349</v>
       </c>
       <c r="B351" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D351" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F351" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" s="1">
         <v>349</v>
       </c>
       <c r="J351" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K351" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L351" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -14152,13 +14168,13 @@
         <v>350</v>
       </c>
       <c r="B352" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D352" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>3</v>
@@ -14170,10 +14186,10 @@
         <v>350</v>
       </c>
       <c r="J352" s="1">
+        <v>48</v>
+      </c>
+      <c r="K352" s="1">
         <v>47</v>
-      </c>
-      <c r="K352" s="1">
-        <v>46</v>
       </c>
       <c r="L352" s="1">
         <v>0</v>
@@ -14184,13 +14200,13 @@
         <v>351</v>
       </c>
       <c r="B353" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D353" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>40</v>
@@ -14202,10 +14218,10 @@
         <v>351</v>
       </c>
       <c r="J353" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K353" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L353" s="1">
         <v>0</v>
@@ -14216,13 +14232,13 @@
         <v>352</v>
       </c>
       <c r="B354" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D354" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>41</v>
@@ -14234,10 +14250,10 @@
         <v>352</v>
       </c>
       <c r="J354" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K354" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L354" s="1">
         <v>0</v>
@@ -14248,13 +14264,13 @@
         <v>353</v>
       </c>
       <c r="B355" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D355" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>42</v>
@@ -14266,10 +14282,10 @@
         <v>353</v>
       </c>
       <c r="J355" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K355" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L355" s="1">
         <v>0</v>
@@ -14280,31 +14296,31 @@
         <v>354</v>
       </c>
       <c r="B356" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D356" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F356" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" s="1">
         <v>354</v>
       </c>
       <c r="J356" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K356" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L356" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -14312,13 +14328,13 @@
         <v>355</v>
       </c>
       <c r="B357" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D357" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>44</v>
@@ -14330,10 +14346,10 @@
         <v>355</v>
       </c>
       <c r="J357" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K357" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L357" s="1">
         <v>0</v>
@@ -14344,13 +14360,13 @@
         <v>356</v>
       </c>
       <c r="B358" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D358" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>45</v>
@@ -14362,10 +14378,10 @@
         <v>356</v>
       </c>
       <c r="J358" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K358" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L358" s="1">
         <v>0</v>
@@ -14376,13 +14392,13 @@
         <v>357</v>
       </c>
       <c r="B359" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D359" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>46</v>
@@ -14394,10 +14410,10 @@
         <v>357</v>
       </c>
       <c r="J359" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K359" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L359" s="1">
         <v>0</v>
@@ -14408,31 +14424,31 @@
         <v>358</v>
       </c>
       <c r="B360" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D360" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F360" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" s="1">
         <v>358</v>
       </c>
       <c r="J360" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K360" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L360" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -14440,31 +14456,31 @@
         <v>359</v>
       </c>
       <c r="B361" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D361" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F361" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" s="1">
         <v>359</v>
       </c>
       <c r="J361" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K361" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L361" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -14472,13 +14488,13 @@
         <v>360</v>
       </c>
       <c r="B362" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D362" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>40</v>
@@ -14490,10 +14506,10 @@
         <v>360</v>
       </c>
       <c r="J362" s="1">
+        <v>49</v>
+      </c>
+      <c r="K362" s="1">
         <v>48</v>
-      </c>
-      <c r="K362" s="1">
-        <v>47</v>
       </c>
       <c r="L362" s="1">
         <v>0</v>
@@ -14504,13 +14520,13 @@
         <v>361</v>
       </c>
       <c r="B363" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D363" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>41</v>
@@ -14522,10 +14538,10 @@
         <v>361</v>
       </c>
       <c r="J363" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K363" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L363" s="1">
         <v>0</v>
@@ -14536,31 +14552,31 @@
         <v>362</v>
       </c>
       <c r="B364" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D364" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" s="1">
         <v>362</v>
       </c>
       <c r="J364" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K364" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -14568,13 +14584,13 @@
         <v>363</v>
       </c>
       <c r="B365" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D365" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>43</v>
@@ -14586,10 +14602,10 @@
         <v>363</v>
       </c>
       <c r="J365" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K365" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L365" s="1">
         <v>0</v>
@@ -14600,13 +14616,13 @@
         <v>364</v>
       </c>
       <c r="B366" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D366" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>44</v>
@@ -14618,10 +14634,10 @@
         <v>364</v>
       </c>
       <c r="J366" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K366" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L366" s="1">
         <v>0</v>
@@ -14632,13 +14648,13 @@
         <v>365</v>
       </c>
       <c r="B367" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D367" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>45</v>
@@ -14650,10 +14666,10 @@
         <v>365</v>
       </c>
       <c r="J367" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K367" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L367" s="1">
         <v>0</v>
@@ -14664,13 +14680,13 @@
         <v>366</v>
       </c>
       <c r="B368" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D368" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>46</v>
@@ -14682,10 +14698,10 @@
         <v>366</v>
       </c>
       <c r="J368" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K368" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L368" s="1">
         <v>0</v>
@@ -14696,13 +14712,13 @@
         <v>367</v>
       </c>
       <c r="B369" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D369" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>0</v>
@@ -14714,10 +14730,10 @@
         <v>367</v>
       </c>
       <c r="J369" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K369" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L369" s="1">
         <v>0</v>
@@ -14728,31 +14744,31 @@
         <v>368</v>
       </c>
       <c r="B370" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D370" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" s="1">
         <v>368</v>
       </c>
       <c r="J370" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K370" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -14760,13 +14776,13 @@
         <v>369</v>
       </c>
       <c r="B371" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D371" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>40</v>
@@ -14778,10 +14794,10 @@
         <v>369</v>
       </c>
       <c r="J371" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K371" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L371" s="1">
         <v>0</v>
@@ -14792,31 +14808,31 @@
         <v>370</v>
       </c>
       <c r="B372" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D372" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F372" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" s="1">
         <v>370</v>
       </c>
       <c r="J372" s="1">
+        <v>50</v>
+      </c>
+      <c r="K372" s="1">
         <v>49</v>
       </c>
-      <c r="K372" s="1">
-        <v>48</v>
-      </c>
       <c r="L372" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -14824,13 +14840,13 @@
         <v>371</v>
       </c>
       <c r="B373" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D373" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>42</v>
@@ -14842,10 +14858,10 @@
         <v>371</v>
       </c>
       <c r="J373" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K373" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L373" s="1">
         <v>0</v>
@@ -14856,13 +14872,13 @@
         <v>372</v>
       </c>
       <c r="B374" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D374" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>43</v>
@@ -14874,10 +14890,10 @@
         <v>372</v>
       </c>
       <c r="J374" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K374" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L374" s="1">
         <v>0</v>
@@ -14888,13 +14904,13 @@
         <v>373</v>
       </c>
       <c r="B375" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D375" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>44</v>
@@ -14906,10 +14922,10 @@
         <v>373</v>
       </c>
       <c r="J375" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K375" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L375" s="1">
         <v>0</v>
@@ -14920,13 +14936,13 @@
         <v>374</v>
       </c>
       <c r="B376" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D376" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>45</v>
@@ -14938,10 +14954,10 @@
         <v>374</v>
       </c>
       <c r="J376" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K376" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L376" s="1">
         <v>0</v>
@@ -14952,13 +14968,13 @@
         <v>375</v>
       </c>
       <c r="B377" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D377" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>46</v>
@@ -14970,10 +14986,10 @@
         <v>375</v>
       </c>
       <c r="J377" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K377" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L377" s="1">
         <v>0</v>
@@ -14984,13 +15000,13 @@
         <v>376</v>
       </c>
       <c r="B378" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D378" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>0</v>
@@ -15002,10 +15018,10 @@
         <v>376</v>
       </c>
       <c r="J378" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K378" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L378" s="1">
         <v>0</v>
@@ -15016,13 +15032,13 @@
         <v>377</v>
       </c>
       <c r="B379" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D379" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>3</v>
@@ -15034,10 +15050,10 @@
         <v>377</v>
       </c>
       <c r="J379" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K379" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L379" s="1">
         <v>0</v>
@@ -15048,13 +15064,13 @@
         <v>378</v>
       </c>
       <c r="B380" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D380" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>40</v>
@@ -15066,10 +15082,10 @@
         <v>378</v>
       </c>
       <c r="J380" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K380" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L380" s="1">
         <v>0</v>
@@ -15080,13 +15096,13 @@
         <v>379</v>
       </c>
       <c r="B381" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D381" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>41</v>
@@ -15098,10 +15114,10 @@
         <v>379</v>
       </c>
       <c r="J381" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K381" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L381" s="1">
         <v>0</v>
@@ -15112,13 +15128,13 @@
         <v>380</v>
       </c>
       <c r="B382" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D382" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>42</v>
@@ -15130,10 +15146,10 @@
         <v>380</v>
       </c>
       <c r="J382" s="1">
+        <v>51</v>
+      </c>
+      <c r="K382" s="1">
         <v>50</v>
-      </c>
-      <c r="K382" s="1">
-        <v>49</v>
       </c>
       <c r="L382" s="1">
         <v>0</v>
@@ -15144,31 +15160,31 @@
         <v>381</v>
       </c>
       <c r="B383" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D383" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F383" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" s="1">
         <v>381</v>
       </c>
       <c r="J383" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K383" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L383" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -15176,31 +15192,31 @@
         <v>382</v>
       </c>
       <c r="B384" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D384" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F384" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" s="1">
         <v>382</v>
       </c>
       <c r="J384" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K384" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L384" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -15208,13 +15224,13 @@
         <v>383</v>
       </c>
       <c r="B385" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D385" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>45</v>
@@ -15226,10 +15242,10 @@
         <v>383</v>
       </c>
       <c r="J385" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K385" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L385" s="1">
         <v>0</v>
@@ -15240,13 +15256,13 @@
         <v>384</v>
       </c>
       <c r="B386" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D386" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>46</v>
@@ -15258,10 +15274,10 @@
         <v>384</v>
       </c>
       <c r="J386" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K386" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L386" s="1">
         <v>0</v>
@@ -15272,13 +15288,13 @@
         <v>385</v>
       </c>
       <c r="B387" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D387" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>0</v>
@@ -15290,10 +15306,10 @@
         <v>385</v>
       </c>
       <c r="J387" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K387" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L387" s="1">
         <v>0</v>
@@ -15304,13 +15320,13 @@
         <v>386</v>
       </c>
       <c r="B388" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D388" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>3</v>
@@ -15322,10 +15338,10 @@
         <v>386</v>
       </c>
       <c r="J388" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K388" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L388" s="1">
         <v>0</v>
@@ -15336,13 +15352,13 @@
         <v>387</v>
       </c>
       <c r="B389" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D389" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>40</v>
@@ -15354,10 +15370,10 @@
         <v>387</v>
       </c>
       <c r="J389" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K389" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L389" s="1">
         <v>0</v>
@@ -15368,31 +15384,31 @@
         <v>388</v>
       </c>
       <c r="B390" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D390" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" s="1">
         <v>388</v>
       </c>
       <c r="J390" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K390" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -15400,13 +15416,13 @@
         <v>389</v>
       </c>
       <c r="B391" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D391" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>42</v>
@@ -15418,10 +15434,10 @@
         <v>389</v>
       </c>
       <c r="J391" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K391" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L391" s="1">
         <v>0</v>
@@ -15432,13 +15448,13 @@
         <v>390</v>
       </c>
       <c r="B392" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D392" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>43</v>
@@ -15450,10 +15466,10 @@
         <v>390</v>
       </c>
       <c r="J392" s="1">
+        <v>52</v>
+      </c>
+      <c r="K392" s="1">
         <v>51</v>
-      </c>
-      <c r="K392" s="1">
-        <v>50</v>
       </c>
       <c r="L392" s="1">
         <v>0</v>
@@ -15464,13 +15480,13 @@
         <v>391</v>
       </c>
       <c r="B393" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D393" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>44</v>
@@ -15482,10 +15498,10 @@
         <v>391</v>
       </c>
       <c r="J393" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K393" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L393" s="1">
         <v>0</v>
@@ -15496,31 +15512,31 @@
         <v>392</v>
       </c>
       <c r="B394" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D394" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F394" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394" s="1">
         <v>392</v>
       </c>
       <c r="J394" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K394" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L394" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -15528,13 +15544,13 @@
         <v>393</v>
       </c>
       <c r="B395" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D395" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>46</v>
@@ -15546,10 +15562,10 @@
         <v>393</v>
       </c>
       <c r="J395" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K395" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L395" s="1">
         <v>0</v>
@@ -15560,13 +15576,13 @@
         <v>394</v>
       </c>
       <c r="B396" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D396" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>0</v>
@@ -15578,10 +15594,10 @@
         <v>394</v>
       </c>
       <c r="J396" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K396" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L396" s="1">
         <v>0</v>
@@ -15592,13 +15608,13 @@
         <v>395</v>
       </c>
       <c r="B397" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D397" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>3</v>
@@ -15610,10 +15626,10 @@
         <v>395</v>
       </c>
       <c r="J397" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K397" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L397" s="1">
         <v>0</v>
@@ -15624,13 +15640,13 @@
         <v>396</v>
       </c>
       <c r="B398" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D398" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>40</v>
@@ -15642,10 +15658,10 @@
         <v>396</v>
       </c>
       <c r="J398" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K398" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L398" s="1">
         <v>0</v>
@@ -15656,13 +15672,13 @@
         <v>397</v>
       </c>
       <c r="B399" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D399" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>41</v>
@@ -15674,10 +15690,10 @@
         <v>397</v>
       </c>
       <c r="J399" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K399" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L399" s="1">
         <v>0</v>
@@ -15688,13 +15704,13 @@
         <v>398</v>
       </c>
       <c r="B400" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D400" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>42</v>
@@ -15706,10 +15722,10 @@
         <v>398</v>
       </c>
       <c r="J400" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K400" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L400" s="1">
         <v>0</v>
@@ -15720,13 +15736,13 @@
         <v>399</v>
       </c>
       <c r="B401" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D401" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>43</v>
@@ -15738,10 +15754,10 @@
         <v>399</v>
       </c>
       <c r="J401" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K401" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L401" s="1">
         <v>0</v>
@@ -15752,31 +15768,31 @@
         <v>400</v>
       </c>
       <c r="B402" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D402" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F402" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I402" s="1">
         <v>400</v>
       </c>
       <c r="J402" s="1">
+        <v>53</v>
+      </c>
+      <c r="K402" s="1">
         <v>52</v>
       </c>
-      <c r="K402" s="1">
-        <v>51</v>
-      </c>
       <c r="L402" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -15784,31 +15800,31 @@
         <v>401</v>
       </c>
       <c r="B403" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D403" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F403" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" s="1">
         <v>401</v>
       </c>
       <c r="J403" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K403" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L403" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -15816,13 +15832,13 @@
         <v>402</v>
       </c>
       <c r="B404" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D404" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>46</v>
@@ -15834,10 +15850,10 @@
         <v>402</v>
       </c>
       <c r="J404" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K404" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L404" s="1">
         <v>0</v>
@@ -15848,13 +15864,13 @@
         <v>403</v>
       </c>
       <c r="B405" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D405" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>0</v>
@@ -15866,10 +15882,10 @@
         <v>403</v>
       </c>
       <c r="J405" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K405" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L405" s="1">
         <v>0</v>
@@ -15880,13 +15896,13 @@
         <v>404</v>
       </c>
       <c r="B406" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D406" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>3</v>
@@ -15898,10 +15914,10 @@
         <v>404</v>
       </c>
       <c r="J406" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K406" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L406" s="1">
         <v>0</v>
@@ -15912,13 +15928,13 @@
         <v>405</v>
       </c>
       <c r="B407" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D407" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>40</v>
@@ -15930,10 +15946,10 @@
         <v>405</v>
       </c>
       <c r="J407" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K407" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L407" s="1">
         <v>0</v>
@@ -15944,13 +15960,13 @@
         <v>406</v>
       </c>
       <c r="B408" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D408" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>41</v>
@@ -15962,10 +15978,10 @@
         <v>406</v>
       </c>
       <c r="J408" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K408" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L408" s="1">
         <v>0</v>
@@ -15976,31 +15992,31 @@
         <v>407</v>
       </c>
       <c r="B409" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D409" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F409" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" s="1">
         <v>407</v>
       </c>
       <c r="J409" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K409" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L409" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -16008,13 +16024,13 @@
         <v>408</v>
       </c>
       <c r="B410" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D410" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>43</v>
@@ -16026,10 +16042,10 @@
         <v>408</v>
       </c>
       <c r="J410" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K410" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L410" s="1">
         <v>0</v>
@@ -16040,13 +16056,13 @@
         <v>409</v>
       </c>
       <c r="B411" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D411" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>44</v>
@@ -16058,10 +16074,10 @@
         <v>409</v>
       </c>
       <c r="J411" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K411" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L411" s="1">
         <v>0</v>
@@ -16072,13 +16088,13 @@
         <v>410</v>
       </c>
       <c r="B412" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D412" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>45</v>
@@ -16090,10 +16106,10 @@
         <v>410</v>
       </c>
       <c r="J412" s="1">
+        <v>54</v>
+      </c>
+      <c r="K412" s="1">
         <v>53</v>
-      </c>
-      <c r="K412" s="1">
-        <v>52</v>
       </c>
       <c r="L412" s="1">
         <v>0</v>
@@ -16104,31 +16120,31 @@
         <v>411</v>
       </c>
       <c r="B413" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D413" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F413" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413" s="1">
         <v>411</v>
       </c>
       <c r="J413" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K413" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L413" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -16136,13 +16152,13 @@
         <v>412</v>
       </c>
       <c r="B414" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D414" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>0</v>
@@ -16154,10 +16170,10 @@
         <v>412</v>
       </c>
       <c r="J414" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K414" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L414" s="1">
         <v>0</v>
@@ -16168,13 +16184,13 @@
         <v>413</v>
       </c>
       <c r="B415" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D415" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>3</v>
@@ -16186,10 +16202,10 @@
         <v>413</v>
       </c>
       <c r="J415" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K415" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L415" s="1">
         <v>0</v>
@@ -16200,13 +16216,13 @@
         <v>414</v>
       </c>
       <c r="B416" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D416" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>40</v>
@@ -16218,10 +16234,10 @@
         <v>414</v>
       </c>
       <c r="J416" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K416" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L416" s="1">
         <v>0</v>
@@ -16232,13 +16248,13 @@
         <v>415</v>
       </c>
       <c r="B417" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D417" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>41</v>
@@ -16250,10 +16266,10 @@
         <v>415</v>
       </c>
       <c r="J417" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K417" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L417" s="1">
         <v>0</v>
@@ -16264,13 +16280,13 @@
         <v>416</v>
       </c>
       <c r="B418" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D418" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>42</v>
@@ -16282,10 +16298,10 @@
         <v>416</v>
       </c>
       <c r="J418" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K418" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L418" s="1">
         <v>0</v>
@@ -16296,13 +16312,13 @@
         <v>417</v>
       </c>
       <c r="B419" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D419" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>43</v>
@@ -16314,10 +16330,10 @@
         <v>417</v>
       </c>
       <c r="J419" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K419" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L419" s="1">
         <v>0</v>
@@ -16328,31 +16344,31 @@
         <v>418</v>
       </c>
       <c r="B420" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D420" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F420" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I420" s="1">
         <v>418</v>
       </c>
       <c r="J420" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K420" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L420" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -16360,13 +16376,13 @@
         <v>419</v>
       </c>
       <c r="B421" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D421" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>45</v>
@@ -16378,10 +16394,10 @@
         <v>419</v>
       </c>
       <c r="J421" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K421" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L421" s="1">
         <v>0</v>
@@ -16392,13 +16408,13 @@
         <v>420</v>
       </c>
       <c r="B422" s="1">
+        <v>55</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D422" s="1">
         <v>54</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D422" s="1">
-        <v>53</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>46</v>
@@ -16410,10 +16426,10 @@
         <v>420</v>
       </c>
       <c r="J422" s="1">
+        <v>55</v>
+      </c>
+      <c r="K422" s="1">
         <v>54</v>
-      </c>
-      <c r="K422" s="1">
-        <v>53</v>
       </c>
       <c r="L422" s="1">
         <v>0</v>
@@ -16424,31 +16440,31 @@
         <v>421</v>
       </c>
       <c r="B423" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D423" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F423" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" s="1">
         <v>421</v>
       </c>
       <c r="J423" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K423" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L423" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
